--- a/Outputs/3. Prosumer percentage/Base Cases/90/Output_0_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Base Cases/90/Output_0_40.xlsx
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573945.4952062417</v>
+        <v>573945.4952062415</v>
       </c>
       <c r="C2" t="n">
-        <v>573945.4952062417</v>
+        <v>573945.4952062415</v>
       </c>
       <c r="D2" t="n">
-        <v>573945.4952062417</v>
+        <v>573945.4952062415</v>
       </c>
       <c r="E2" t="n">
-        <v>532978.6561041701</v>
+        <v>532978.6561041703</v>
       </c>
       <c r="F2" t="n">
-        <v>568935.0027864847</v>
+        <v>568935.0027864844</v>
       </c>
       <c r="G2" t="n">
         <v>574496.1344872777</v>
@@ -26338,22 +26338,22 @@
         <v>494360.5886547919</v>
       </c>
       <c r="K2" t="n">
-        <v>573945.4952062417</v>
+        <v>573945.4952062415</v>
       </c>
       <c r="L2" t="n">
-        <v>580716.7804015944</v>
+        <v>580716.7804015942</v>
       </c>
       <c r="M2" t="n">
-        <v>580716.7804015944</v>
+        <v>580716.7804015942</v>
       </c>
       <c r="N2" t="n">
-        <v>580716.7804015944</v>
+        <v>580716.7804015942</v>
       </c>
       <c r="O2" t="n">
         <v>494360.5886547919</v>
       </c>
       <c r="P2" t="n">
-        <v>314550.4589321018</v>
+        <v>314550.4589321019</v>
       </c>
     </row>
     <row r="3">
@@ -26424,7 +26424,7 @@
         <v>327589.1918343984</v>
       </c>
       <c r="E4" t="n">
-        <v>304206.668884837</v>
+        <v>304206.6688848369</v>
       </c>
       <c r="F4" t="n">
         <v>324729.3677288172</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>212467.3091112719</v>
+        <v>212467.3091112717</v>
       </c>
       <c r="C6" t="n">
-        <v>212703.8465404286</v>
+        <v>212703.8465404283</v>
       </c>
       <c r="D6" t="n">
-        <v>212703.8465404286</v>
+        <v>212703.8465404283</v>
       </c>
       <c r="E6" t="n">
-        <v>-74585.06197653795</v>
+        <v>-74585.06197653778</v>
       </c>
       <c r="F6" t="n">
-        <v>171996.587843813</v>
+        <v>171996.5878438128</v>
       </c>
       <c r="G6" t="n">
         <v>205535.413572123</v>
@@ -26546,22 +26546,22 @@
         <v>-1967.2249250977</v>
       </c>
       <c r="K6" t="n">
-        <v>89160.99982410291</v>
+        <v>89160.99982410268</v>
       </c>
       <c r="L6" t="n">
-        <v>194714.4186696646</v>
+        <v>194714.4186696645</v>
       </c>
       <c r="M6" t="n">
-        <v>214319.492102158</v>
+        <v>214319.4921021578</v>
       </c>
       <c r="N6" t="n">
-        <v>214319.492102158</v>
+        <v>214319.4921021578</v>
       </c>
       <c r="O6" t="n">
         <v>94640.92380122964</v>
       </c>
       <c r="P6" t="n">
-        <v>123206.9860973836</v>
+        <v>123206.9860973837</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/3. Prosumer percentage/Base Cases/90/Output_0_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Base Cases/90/Output_0_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1373448.933208305</v>
+        <v>1343031.406346168</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1425084.998858813</v>
+        <v>393801.3664809166</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4765999.278925672</v>
+        <v>4961085.740072559</v>
       </c>
     </row>
     <row r="11">
@@ -23255,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>72.24502579562494</v>
+        <v>23.22244444595816</v>
       </c>
       <c r="C11" t="n">
-        <v>79.22686783384307</v>
+        <v>30.20428648417629</v>
       </c>
       <c r="D11" t="n">
-        <v>75.6548397538599</v>
+        <v>26.63225840419312</v>
       </c>
       <c r="E11" t="n">
-        <v>78.31231560063122</v>
+        <v>29.28973425096444</v>
       </c>
       <c r="F11" t="n">
-        <v>77.46808513950396</v>
+        <v>28.44550378983718</v>
       </c>
       <c r="G11" t="n">
-        <v>56.89081693345605</v>
+        <v>7.868235583789271</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23315,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>10.50966587202322</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>49.02258134966678</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>64.19794399094042</v>
+        <v>15.17536264127364</v>
       </c>
       <c r="Y11" t="n">
-        <v>57.87904249166877</v>
+        <v>8.85646114200199</v>
       </c>
     </row>
     <row r="12">
@@ -23729,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>14.36598330395617</v>
+        <v>15.35420886216889</v>
       </c>
       <c r="C17" t="n">
-        <v>21.3478253421743</v>
+        <v>22.33605090038702</v>
       </c>
       <c r="D17" t="n">
-        <v>17.77579726219113</v>
+        <v>18.76402282040385</v>
       </c>
       <c r="E17" t="n">
-        <v>20.43327310896245</v>
+        <v>21.42149866717517</v>
       </c>
       <c r="F17" t="n">
-        <v>19.58904264783519</v>
+        <v>20.5772682060479</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23795,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>6.318901499271647</v>
+        <v>7.307127057484365</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>0.9882255582127186</v>
       </c>
     </row>
     <row r="18">
@@ -23966,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>14.36598330395617</v>
+        <v>15.35420886216889</v>
       </c>
       <c r="C20" t="n">
-        <v>21.3478253421743</v>
+        <v>22.33605090038702</v>
       </c>
       <c r="D20" t="n">
-        <v>17.77579726219113</v>
+        <v>18.76402282040385</v>
       </c>
       <c r="E20" t="n">
-        <v>20.43327310896245</v>
+        <v>21.42149866717517</v>
       </c>
       <c r="F20" t="n">
-        <v>19.58904264783519</v>
+        <v>20.5772682060479</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24032,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>6.318901499271647</v>
+        <v>7.307127057484365</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>0.9882255582127186</v>
       </c>
     </row>
     <row r="21">
@@ -24203,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>14.36598330395617</v>
+        <v>15.35420886216889</v>
       </c>
       <c r="C23" t="n">
-        <v>21.3478253421743</v>
+        <v>22.33605090038702</v>
       </c>
       <c r="D23" t="n">
-        <v>17.77579726219113</v>
+        <v>18.76402282040385</v>
       </c>
       <c r="E23" t="n">
-        <v>20.43327310896245</v>
+        <v>21.42149866717517</v>
       </c>
       <c r="F23" t="n">
-        <v>19.58904264783519</v>
+        <v>20.5772682060479</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24269,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>6.318901499271647</v>
+        <v>7.307127057484365</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>0.9882255582127186</v>
       </c>
     </row>
     <row r="24">
@@ -24440,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>120.7601859079092</v>
+        <v>23.22244444595816</v>
       </c>
       <c r="C26" t="n">
-        <v>127.7420279461273</v>
+        <v>30.20428648417629</v>
       </c>
       <c r="D26" t="n">
-        <v>124.1699998661442</v>
+        <v>26.63225840419312</v>
       </c>
       <c r="E26" t="n">
-        <v>126.8274757129155</v>
+        <v>29.28973425096444</v>
       </c>
       <c r="F26" t="n">
-        <v>125.9832452517882</v>
+        <v>28.44550378983718</v>
       </c>
       <c r="G26" t="n">
-        <v>105.4059770457403</v>
+        <v>7.868235583789271</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24500,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>59.02482598430748</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>97.53774146195104</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>112.7131041032247</v>
+        <v>15.17536264127364</v>
       </c>
       <c r="Y26" t="n">
-        <v>106.394202603953</v>
+        <v>8.85646114200199</v>
       </c>
     </row>
     <row r="27">
@@ -24677,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>15.35420886216889</v>
+        <v>23.22244444595816</v>
       </c>
       <c r="C29" t="n">
-        <v>22.33605090038702</v>
+        <v>30.20428648417629</v>
       </c>
       <c r="D29" t="n">
-        <v>18.76402282040385</v>
+        <v>26.63225840419312</v>
       </c>
       <c r="E29" t="n">
-        <v>21.42149866717517</v>
+        <v>29.28973425096444</v>
       </c>
       <c r="F29" t="n">
-        <v>20.5772682060479</v>
+        <v>28.44550378983718</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>7.868235583789271</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24743,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>7.307127057484365</v>
+        <v>15.17536264127364</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.9882255582127186</v>
+        <v>8.85646114200199</v>
       </c>
     </row>
     <row r="30">
@@ -24914,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>15.35420886216889</v>
       </c>
       <c r="C32" t="n">
-        <v>6.981842038218133</v>
+        <v>22.33605090038702</v>
       </c>
       <c r="D32" t="n">
-        <v>3.409813958234963</v>
+        <v>18.76402282040385</v>
       </c>
       <c r="E32" t="n">
-        <v>6.067289805006283</v>
+        <v>21.42149866717517</v>
       </c>
       <c r="F32" t="n">
-        <v>5.223059343879015</v>
+        <v>20.5772682060479</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24980,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>7.307127057484365</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>0.9882255582127186</v>
       </c>
     </row>
     <row r="33">
@@ -25151,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>15.35420886216889</v>
       </c>
       <c r="C35" t="n">
-        <v>6.981842038218133</v>
+        <v>22.33605090038702</v>
       </c>
       <c r="D35" t="n">
-        <v>3.409813958234963</v>
+        <v>18.76402282040385</v>
       </c>
       <c r="E35" t="n">
-        <v>6.067289805006283</v>
+        <v>21.42149866717517</v>
       </c>
       <c r="F35" t="n">
-        <v>5.223059343879015</v>
+        <v>20.5772682060479</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25217,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>7.307127057484365</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>0.9882255582127186</v>
       </c>
     </row>
     <row r="36">
@@ -25388,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>15.35420886216889</v>
       </c>
       <c r="C38" t="n">
-        <v>6.981842038218133</v>
+        <v>22.33605090038702</v>
       </c>
       <c r="D38" t="n">
-        <v>3.409813958234963</v>
+        <v>18.76402282040385</v>
       </c>
       <c r="E38" t="n">
-        <v>6.067289805006283</v>
+        <v>21.42149866717517</v>
       </c>
       <c r="F38" t="n">
-        <v>5.223059343879015</v>
+        <v>20.5772682060479</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25454,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>7.307127057484365</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>0.9882255582127186</v>
       </c>
     </row>
     <row r="39">
@@ -25625,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>120.7601859079092</v>
+        <v>23.22244444595816</v>
       </c>
       <c r="C41" t="n">
-        <v>127.7420279461273</v>
+        <v>30.20428648417629</v>
       </c>
       <c r="D41" t="n">
-        <v>124.1699998661442</v>
+        <v>26.63225840419312</v>
       </c>
       <c r="E41" t="n">
-        <v>126.8274757129155</v>
+        <v>29.28973425096444</v>
       </c>
       <c r="F41" t="n">
-        <v>125.9832452517882</v>
+        <v>28.44550378983718</v>
       </c>
       <c r="G41" t="n">
-        <v>105.4059770457403</v>
+        <v>7.868235583789271</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25685,16 +25687,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>59.02482598430748</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>97.53774146195104</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>112.7131041032247</v>
+        <v>15.17536264127364</v>
       </c>
       <c r="Y41" t="n">
-        <v>106.394202603953</v>
+        <v>8.85646114200199</v>
       </c>
     </row>
     <row r="42">
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>275.1887443033163</v>
+        <v>23.22244444595816</v>
       </c>
       <c r="C44" t="n">
-        <v>282.1705863415344</v>
+        <v>30.20428648417629</v>
       </c>
       <c r="D44" t="n">
-        <v>278.5985582615513</v>
+        <v>26.63225840419312</v>
       </c>
       <c r="E44" t="n">
-        <v>281.2560341083225</v>
+        <v>29.28973425096444</v>
       </c>
       <c r="F44" t="n">
-        <v>280.4118036471953</v>
+        <v>28.44550378983718</v>
       </c>
       <c r="G44" t="n">
-        <v>259.8345354411474</v>
+        <v>7.868235583789271</v>
       </c>
       <c r="H44" t="n">
-        <v>154.4285583954071</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25916,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>78.25517890051472</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>115.3102239642534</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>213.4533843797145</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>251.9662998573581</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>267.1416624986317</v>
+        <v>15.17536264127364</v>
       </c>
       <c r="Y44" t="n">
-        <v>260.8227609993601</v>
+        <v>8.85646114200199</v>
       </c>
     </row>
     <row r="45">
@@ -25998,16 +26000,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>42.45937777426121</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>62.46227112682794</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>54.09502704981651</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>21.38143642570526</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.80317267964654</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>29.79170114457469</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>21.22246879919854</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>24.08498744337652</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>29.68202013788672</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>24.13326366341173</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1.897169461628692</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26071,25 +26073,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>27.97256066075803</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>100.4448179510605</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>136.9214676694003</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>138.4332163727529</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>131.6427434439136</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>99.67712124335446</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>83.61820428185692</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>399733.9920781279</v>
+        <v>426701.2520898633</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>430872.1008654582</v>
+        <v>430459.121404681</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>430872.1008654582</v>
+        <v>430459.121404681</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>430872.1008654582</v>
+        <v>430459.121404681</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>370770.4414910941</v>
+        <v>426701.2520898633</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>430459.121404681</v>
+        <v>426701.2520898633</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>435537.5853011956</v>
+        <v>430459.121404681</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>435537.5853011956</v>
+        <v>430459.121404681</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>435537.5853011956</v>
+        <v>430459.121404681</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>370770.4414910941</v>
+        <v>426701.2520898633</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>235912.8441990764</v>
+        <v>426701.2520898633</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>573945.4952062415</v>
       </c>
       <c r="E2" t="n">
-        <v>532978.6561041703</v>
+        <v>568935.0027864844</v>
       </c>
       <c r="F2" t="n">
         <v>568935.0027864844</v>
       </c>
       <c r="G2" t="n">
-        <v>574496.1344872777</v>
+        <v>573945.4952062415</v>
       </c>
       <c r="H2" t="n">
-        <v>574496.1344872777</v>
+        <v>573945.4952062415</v>
       </c>
       <c r="I2" t="n">
-        <v>574496.1344872777</v>
+        <v>573945.4952062415</v>
       </c>
       <c r="J2" t="n">
-        <v>494360.5886547919</v>
+        <v>568935.0027864844</v>
       </c>
       <c r="K2" t="n">
+        <v>568935.0027864844</v>
+      </c>
+      <c r="L2" t="n">
         <v>573945.4952062415</v>
       </c>
-      <c r="L2" t="n">
-        <v>580716.7804015942</v>
-      </c>
       <c r="M2" t="n">
-        <v>580716.7804015942</v>
+        <v>573945.4952062415</v>
       </c>
       <c r="N2" t="n">
-        <v>580716.7804015942</v>
+        <v>573945.4952062415</v>
       </c>
       <c r="O2" t="n">
-        <v>494360.5886547919</v>
+        <v>568935.0027864844</v>
       </c>
       <c r="P2" t="n">
-        <v>314550.4589321019</v>
+        <v>568935.0027864844</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>274487.3464532351</v>
+        <v>313705.4115329686</v>
       </c>
       <c r="F3" t="n">
-        <v>39218.06507973342</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7321.706342758262</v>
+        <v>6531.125896188087</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189371.9843700727</v>
+        <v>307410.8230659371</v>
       </c>
       <c r="K3" t="n">
-        <v>123542.8467163257</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19605.07343249337</v>
+        <v>12825.7143632195</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>92763.83564374538</v>
+        <v>301116.2345989058</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>327589.1918343984</v>
       </c>
       <c r="E4" t="n">
-        <v>304206.6688848369</v>
+        <v>324729.3677288172</v>
       </c>
       <c r="F4" t="n">
         <v>324729.3677288172</v>
       </c>
       <c r="G4" t="n">
-        <v>327903.4786065284</v>
+        <v>327589.1918343984</v>
       </c>
       <c r="H4" t="n">
-        <v>327903.4786065284</v>
+        <v>327589.1918343984</v>
       </c>
       <c r="I4" t="n">
-        <v>327903.4786065284</v>
+        <v>327589.1918343984</v>
       </c>
       <c r="J4" t="n">
-        <v>282164.7474626605</v>
+        <v>324729.3677288172</v>
       </c>
       <c r="K4" t="n">
+        <v>324729.3677288172</v>
+      </c>
+      <c r="L4" t="n">
         <v>327589.1918343984</v>
       </c>
-      <c r="L4" t="n">
-        <v>331454.018483188</v>
-      </c>
       <c r="M4" t="n">
-        <v>331454.018483188</v>
+        <v>327589.1918343984</v>
       </c>
       <c r="N4" t="n">
-        <v>331454.018483188</v>
+        <v>327589.1918343984</v>
       </c>
       <c r="O4" t="n">
-        <v>282164.7474626605</v>
+        <v>324729.3677288172</v>
       </c>
       <c r="P4" t="n">
-        <v>179535.0455633053</v>
+        <v>324729.3677288172</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33652.45683141472</v>
       </c>
       <c r="E5" t="n">
-        <v>28869.702742636</v>
+        <v>32990.98213412114</v>
       </c>
       <c r="F5" t="n">
         <v>32990.98213412114</v>
       </c>
       <c r="G5" t="n">
-        <v>33735.5359658681</v>
+        <v>33652.45683141472</v>
       </c>
       <c r="H5" t="n">
-        <v>33735.5359658681</v>
+        <v>33652.45683141472</v>
       </c>
       <c r="I5" t="n">
-        <v>33735.5359658681</v>
+        <v>33652.45683141472</v>
       </c>
       <c r="J5" t="n">
-        <v>24791.08174715638</v>
+        <v>32990.98213412114</v>
       </c>
       <c r="K5" t="n">
+        <v>32990.98213412114</v>
+      </c>
+      <c r="L5" t="n">
         <v>33652.45683141472</v>
       </c>
-      <c r="L5" t="n">
-        <v>34943.26981624839</v>
-      </c>
       <c r="M5" t="n">
-        <v>34943.26981624839</v>
+        <v>33652.45683141472</v>
       </c>
       <c r="N5" t="n">
-        <v>34943.26981624839</v>
+        <v>33652.45683141472</v>
       </c>
       <c r="O5" t="n">
-        <v>24791.08174715638</v>
+        <v>32990.98213412114</v>
       </c>
       <c r="P5" t="n">
-        <v>11808.4272714129</v>
+        <v>32990.98213412114</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>212703.8465404283</v>
       </c>
       <c r="E6" t="n">
-        <v>-74585.06197653778</v>
+        <v>-102490.7586094224</v>
       </c>
       <c r="F6" t="n">
-        <v>171996.5878438128</v>
+        <v>211214.6529235461</v>
       </c>
       <c r="G6" t="n">
-        <v>205535.413572123</v>
+        <v>206172.7206442403</v>
       </c>
       <c r="H6" t="n">
-        <v>212857.1199148812</v>
+        <v>212703.8465404283</v>
       </c>
       <c r="I6" t="n">
-        <v>212857.1199148812</v>
+        <v>212703.8465404283</v>
       </c>
       <c r="J6" t="n">
-        <v>-1967.2249250977</v>
+        <v>-96196.170142391</v>
       </c>
       <c r="K6" t="n">
-        <v>89160.99982410268</v>
+        <v>211214.6529235461</v>
       </c>
       <c r="L6" t="n">
-        <v>194714.4186696645</v>
+        <v>199878.1321772089</v>
       </c>
       <c r="M6" t="n">
-        <v>214319.4921021578</v>
+        <v>212703.8465404283</v>
       </c>
       <c r="N6" t="n">
-        <v>214319.4921021578</v>
+        <v>212703.8465404283</v>
       </c>
       <c r="O6" t="n">
-        <v>94640.92380122964</v>
+        <v>-89901.58167535963</v>
       </c>
       <c r="P6" t="n">
-        <v>123206.9860973837</v>
+        <v>211214.6529235461</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26694,40 @@
         <v>400.2956717864458</v>
       </c>
       <c r="E2" t="n">
-        <v>343.4048548529898</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="F2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="G2" t="n">
-        <v>401.2838973446586</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>401.2838973446586</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="I2" t="n">
-        <v>401.2838973446586</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="J2" t="n">
-        <v>294.8896947407055</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="K2" t="n">
+        <v>392.4274362026566</v>
+      </c>
+      <c r="L2" t="n">
         <v>400.2956717864458</v>
       </c>
-      <c r="L2" t="n">
-        <v>415.6498806486147</v>
-      </c>
       <c r="M2" t="n">
-        <v>415.6498806486147</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="N2" t="n">
-        <v>415.6498806486147</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="O2" t="n">
-        <v>294.8896947407055</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="P2" t="n">
-        <v>140.4611363452985</v>
+        <v>392.4274362026566</v>
       </c>
     </row>
     <row r="3">
@@ -26914,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>343.1091830665439</v>
+        <v>392.1317644162107</v>
       </c>
       <c r="F2" t="n">
-        <v>49.02258134966678</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>9.152132928447827</v>
+        <v>8.163907370235108</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>236.7149804625909</v>
+        <v>384.2635288324215</v>
       </c>
       <c r="K2" t="n">
-        <v>154.4285583954071</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.50634179061672</v>
+        <v>16.03214295402438</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>115.9547945546817</v>
+        <v>376.3952932486322</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27151,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>343.1091830665439</v>
+        <v>392.1317644162107</v>
       </c>
       <c r="K2" t="n">
-        <v>49.02258134966678</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>9.152132928447827</v>
+        <v>8.163907370235108</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.7149804625909</v>
+        <v>384.2635288324215</v>
       </c>
       <c r="P2" t="n">
-        <v>154.4285583954071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,22 +28089,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>343.4048548529898</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="C11" t="n">
-        <v>343.4048548529898</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="D11" t="n">
-        <v>343.4048548529898</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="E11" t="n">
-        <v>343.4048548529898</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="F11" t="n">
-        <v>343.4048548529898</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="G11" t="n">
-        <v>343.4048548529898</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -28147,16 +28149,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>343.4048548529898</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>343.4048548529898</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>343.4048548529898</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="Y11" t="n">
-        <v>343.4048548529898</v>
+        <v>392.4274362026566</v>
       </c>
     </row>
     <row r="12">
@@ -28561,19 +28563,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>401.2838973446586</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="C17" t="n">
-        <v>401.2838973446586</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="D17" t="n">
-        <v>401.2838973446586</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="E17" t="n">
-        <v>401.2838973446586</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="F17" t="n">
-        <v>401.2838973446586</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
@@ -28627,10 +28629,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>401.2838973446586</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>400.2956717864458</v>
       </c>
     </row>
     <row r="18">
@@ -28798,19 +28800,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>401.2838973446586</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="C20" t="n">
-        <v>401.2838973446586</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="D20" t="n">
-        <v>401.2838973446586</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="E20" t="n">
-        <v>401.2838973446586</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="F20" t="n">
-        <v>401.2838973446586</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -28864,10 +28866,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>401.2838973446586</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>400.2956717864458</v>
       </c>
     </row>
     <row r="21">
@@ -29035,19 +29037,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>401.2838973446586</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="C23" t="n">
-        <v>401.2838973446586</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="D23" t="n">
-        <v>401.2838973446586</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="E23" t="n">
-        <v>401.2838973446586</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="F23" t="n">
-        <v>401.2838973446586</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="G23" t="n">
         <v>400.2956717864458</v>
@@ -29101,10 +29103,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>401.2838973446586</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>400.2956717864458</v>
       </c>
     </row>
     <row r="24">
@@ -29272,22 +29274,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>294.8896947407055</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="C26" t="n">
-        <v>294.8896947407055</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="D26" t="n">
-        <v>294.8896947407055</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="E26" t="n">
-        <v>294.8896947407055</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="F26" t="n">
-        <v>294.8896947407055</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="G26" t="n">
-        <v>294.8896947407055</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="H26" t="n">
         <v>294.8896947407055</v>
@@ -29332,16 +29334,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>294.8896947407055</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>294.8896947407055</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>294.8896947407055</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="Y26" t="n">
-        <v>294.8896947407055</v>
+        <v>392.4274362026566</v>
       </c>
     </row>
     <row r="27">
@@ -29509,22 +29511,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>400.2956717864458</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="C29" t="n">
-        <v>400.2956717864458</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="D29" t="n">
-        <v>400.2956717864458</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="E29" t="n">
-        <v>400.2956717864458</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="F29" t="n">
-        <v>400.2956717864458</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864458</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="H29" t="n">
         <v>294.8896947407055</v>
@@ -29575,10 +29577,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>400.2956717864458</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="Y29" t="n">
-        <v>400.2956717864458</v>
+        <v>392.4274362026566</v>
       </c>
     </row>
     <row r="30">
@@ -29746,19 +29748,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="C32" t="n">
-        <v>415.6498806486147</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="D32" t="n">
-        <v>415.6498806486147</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="E32" t="n">
-        <v>415.6498806486147</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="F32" t="n">
-        <v>415.6498806486147</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="G32" t="n">
         <v>400.2956717864458</v>
@@ -29812,10 +29814,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>400.2956717864458</v>
       </c>
     </row>
     <row r="33">
@@ -29983,19 +29985,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="C35" t="n">
-        <v>415.6498806486147</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="D35" t="n">
-        <v>415.6498806486147</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="E35" t="n">
-        <v>415.6498806486147</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="F35" t="n">
-        <v>415.6498806486147</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="G35" t="n">
         <v>400.2956717864458</v>
@@ -30049,10 +30051,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>400.2956717864458</v>
       </c>
     </row>
     <row r="36">
@@ -30220,19 +30222,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="C38" t="n">
-        <v>415.6498806486147</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="D38" t="n">
-        <v>415.6498806486147</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="E38" t="n">
-        <v>415.6498806486147</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="F38" t="n">
-        <v>415.6498806486147</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="G38" t="n">
         <v>400.2956717864458</v>
@@ -30286,10 +30288,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>400.2956717864458</v>
       </c>
     </row>
     <row r="39">
@@ -30457,22 +30459,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>294.8896947407055</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="C41" t="n">
-        <v>294.8896947407055</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="D41" t="n">
-        <v>294.8896947407055</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="E41" t="n">
-        <v>294.8896947407055</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="F41" t="n">
-        <v>294.8896947407055</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="G41" t="n">
-        <v>294.8896947407055</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
@@ -30517,16 +30519,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>294.8896947407055</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>294.8896947407055</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>294.8896947407055</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="Y41" t="n">
-        <v>294.8896947407055</v>
+        <v>392.4274362026566</v>
       </c>
     </row>
     <row r="42">
@@ -30694,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>140.4611363452985</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="C44" t="n">
-        <v>140.4611363452985</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="D44" t="n">
-        <v>140.4611363452985</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="E44" t="n">
-        <v>140.4611363452985</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="F44" t="n">
-        <v>140.4611363452985</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="G44" t="n">
-        <v>140.4611363452985</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="H44" t="n">
-        <v>140.4611363452985</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -30748,22 +30750,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>140.4611363452985</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>140.4611363452985</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>140.4611363452985</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>140.4611363452985</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>140.4611363452985</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="Y44" t="n">
-        <v>140.4611363452985</v>
+        <v>392.4274362026566</v>
       </c>
     </row>
     <row r="45">
@@ -30830,16 +30832,16 @@
         <v>140.4611363452985</v>
       </c>
       <c r="U45" t="n">
-        <v>140.4611363452985</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V45" t="n">
-        <v>140.4611363452985</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W45" t="n">
-        <v>140.4611363452985</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X45" t="n">
-        <v>140.4611363452985</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y45" t="n">
         <v>138.2959597602405</v>
@@ -30852,25 +30854,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>140.4611363452985</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>140.4611363452985</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>140.4611363452985</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>140.4611363452985</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>140.4611363452985</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>140.4611363452985</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>140.4611363452985</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -30903,25 +30905,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>140.4611363452985</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>140.4611363452985</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>140.4611363452985</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>140.4611363452985</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>140.4611363452985</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>140.4611363452985</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>140.4611363452985</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
